--- a/Наработки/книги/Заметки.xlsx
+++ b/Наработки/книги/Заметки.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Классы" sheetId="1" r:id="rId1"/>
+    <sheet name="Голоссарий" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,17 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Демонологи</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Класс и описание</t>
   </si>
   <si>
-    <t>Домены</t>
-  </si>
-  <si>
     <t>Основные направления развития</t>
   </si>
   <si>
@@ -54,9 +49,6 @@
     <t>Одержимые (Призывают демонов в своё тело, через пентаграммы-татуировки)</t>
   </si>
   <si>
-    <t>Цепи воли (сменить название) - позволяют управлять демонами как марионеткой и контролировать их. Несколько тонких цепей</t>
-  </si>
-  <si>
     <t>Цепи воли (сменить название) - позволяет захватывать демонов и сдерживать их. Одна, или пара толстых цепей.</t>
   </si>
   <si>
@@ -88,13 +80,40 @@
   </si>
   <si>
     <t>теоритическое изучение</t>
+  </si>
+  <si>
+    <t>Раствор эризиума - зелье созданное из крови и эманаций хаоса. Способствует эксорению работы очага души.</t>
+  </si>
+  <si>
+    <t>Демонологи-чародеи</t>
+  </si>
+  <si>
+    <t>Демонологи-домены</t>
+  </si>
+  <si>
+    <t>Зелья</t>
+  </si>
+  <si>
+    <t>Силы магов</t>
+  </si>
+  <si>
+    <t>Магнусовы цепи - позволяют управлять демонами как марионеткой и контролировать их. Несколько тонких цепей</t>
+  </si>
+  <si>
+    <t>Магнусовы цепи - цепи доменов, позволяющие сдерживать и контролировать порождённых демонов.</t>
+  </si>
+  <si>
+    <t>Горн души - раздутое с помощью магических практик домена, семя Хаоса.</t>
+  </si>
+  <si>
+    <t>Семя Хаоса - отметка Хаоса ложащаяся на тех, кто не обладая  навыками защиты от Хаоса, подвергся его влиянию. Его наличие даёт потенциальную возможность перековать его в горн, и превратить душу в домен.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +126,16 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -145,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -153,6 +182,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -440,7 +472,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,108 +485,108 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
+      <c r="A5" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>0</v>
+      <c r="A8" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -566,4 +598,53 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="201.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Наработки/книги/Заметки.xlsx
+++ b/Наработки/книги/Заметки.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Класс и описание</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>Семя Хаоса - отметка Хаоса ложащаяся на тех, кто не обладая  навыками защиты от Хаоса, подвергся его влиянию. Его наличие даёт потенциальную возможность перековать его в горн, и превратить душу в домен.</t>
+  </si>
+  <si>
+    <t>Империум – контроль Хаоса без соприкосновения с ним телом или душой.</t>
+  </si>
+  <si>
+    <t>Адоптио – принятие Хаоса в свое тело, или проще говоря, одержимость</t>
+  </si>
+  <si>
+    <t>Мергер – слияние с Хаосом, искусство которым владеют домены.</t>
   </si>
 </sst>
 </file>
@@ -602,10 +611,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,6 +652,21 @@
         <v>27</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Наработки/книги/Заметки.xlsx
+++ b/Наработки/книги/Заметки.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910C62F0-F6D8-4BD8-9ECE-D6075176E153}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Классы" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Класс и описание</t>
   </si>
@@ -49,9 +50,6 @@
     <t>Одержимые (Призывают демонов в своё тело, через пентаграммы-татуировки)</t>
   </si>
   <si>
-    <t>Цепи воли (сменить название) - позволяет захватывать демонов и сдерживать их. Одна, или пара толстых цепей.</t>
-  </si>
-  <si>
     <t>Ритуалистика - рисование пентаграмм, заключение договоров с демонами</t>
   </si>
   <si>
@@ -116,13 +114,25 @@
   </si>
   <si>
     <t>Мергер – слияние с Хаосом, искусство которым владеют домены.</t>
+  </si>
+  <si>
+    <t>Цепи воли (сменить название) - позволяет захватывать демонов и сдерживать их. Одна, или пара толстых цепей. Оковы Нерона</t>
+  </si>
+  <si>
+    <t>Дары Хаоса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фиолетовая кровь - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Истиные глаза - </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +150,15 @@
     <font>
       <b/>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -183,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -197,6 +216,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,11 +499,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,12 +525,12 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -517,17 +539,17 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -537,7 +559,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -548,7 +570,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -566,36 +588,36 @@
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -610,11 +632,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,47 +646,62 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Наработки/книги/Заметки.xlsx
+++ b/Наработки/книги/Заметки.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910C62F0-F6D8-4BD8-9ECE-D6075176E153}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A60067-231B-4198-B4FC-E39EBC26F7CE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,9 +98,6 @@
     <t>Магнусовы цепи - позволяют управлять демонами как марионеткой и контролировать их. Несколько тонких цепей</t>
   </si>
   <si>
-    <t>Магнусовы цепи - цепи доменов, позволяющие сдерживать и контролировать порождённых демонов.</t>
-  </si>
-  <si>
     <t>Горн души - раздутое с помощью магических практик домена, семя Хаоса.</t>
   </si>
   <si>
@@ -122,10 +119,13 @@
     <t>Дары Хаоса</t>
   </si>
   <si>
-    <t xml:space="preserve">Фиолетовая кровь - </t>
-  </si>
-  <si>
     <t xml:space="preserve">Истиные глаза - </t>
+  </si>
+  <si>
+    <t>Хтонический нектар - фиолетовая кровь</t>
+  </si>
+  <si>
+    <t>Магнусовы цепи - цепи демонологов-доменов, позволяющие сдерживать и контролировать порождённых демонов.</t>
   </si>
 </sst>
 </file>
@@ -214,11 +214,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,7 +529,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -543,7 +543,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
         <v>24</v>
@@ -553,7 +553,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -563,7 +563,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -575,19 +575,19 @@
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -601,17 +601,17 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
         <v>11</v>
@@ -636,7 +636,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,37 +661,37 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>32</v>
+      <c r="A11" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -701,7 +701,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
